--- a/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
+++ b/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="GQA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -133,14 +133,8 @@
     <t>Atributos de Processo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Processo de Garantia da Qualidade - Sessao 7 - Avaliar artefato de acordo com check­list determinado no projeto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">GQA 4. Ações corretivas para as não-conformidades são estabelecidas e acompanhadas até as suas efetivas conclusões. Quando necessário, o escalonamento das ações corretivas para níveis superiores é realizado, de forma a garantir sua solução.
 As evidências apresentadas para este resultado permitem assegurar: (i) que foram definidas ações corretivas para as não-conformidades e que elas foram acompanhadas até a sua conclusão? (ii) que, quando necessário, as não-conformidades não resolvidas foram escalonadas para níveis superiores visando a efetivação das ações corretivas, conforme mecanismo estabelecido? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processo de Garantia da Qualidade - Sessao 7 - Acompanhar resolução de não conformidades</t>
   </si>
   <si>
     <t>GQA 3. Os problemas e as não-conformidades são identificados, registrados e comunicados. 
@@ -165,6 +159,18 @@
   </si>
   <si>
     <t>Garantia da Qualidade</t>
+  </si>
+  <si>
+    <t>Checklist de Qualidade</t>
+  </si>
+  <si>
+    <t>Relatorio de Qualidade</t>
+  </si>
+  <si>
+    <t>Relatorio Checklist de Acompanhamento</t>
+  </si>
+  <si>
+    <t>Plano de Comunicacao GPR</t>
   </si>
 </sst>
 </file>
@@ -671,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -685,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="3"/>
@@ -701,7 +707,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="3"/>
@@ -720,7 +726,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -735,7 +741,7 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="3"/>
@@ -751,7 +757,7 @@
     </row>
     <row r="5" spans="1:12" ht="76.5" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="3"/>
@@ -770,10 +776,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -787,7 +790,7 @@
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -802,7 +805,9 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
@@ -816,7 +821,9 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
@@ -861,7 +868,7 @@
     </row>
     <row r="12" spans="1:12" ht="78.75" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="3"/>
@@ -876,14 +883,10 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1">
-      <c r="A13" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
+      <c r="A13" s="10" t="s">
+        <v>43</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -897,7 +900,7 @@
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -912,9 +915,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="12" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -973,7 +974,7 @@
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1">
       <c r="A19" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="3"/>
@@ -988,14 +989,10 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
-      <c r="A20" s="7" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
+      <c r="A20" s="5" t="s">
+        <v>45</v>
       </c>
-      <c r="B20" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
@@ -1025,7 +1022,7 @@
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="3"/>
@@ -1114,14 +1111,8 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B28" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1134,9 +1125,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>

--- a/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
+++ b/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1111,7 +1111,9 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
@@ -1125,7 +1127,9 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>

--- a/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
+++ b/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
@@ -14,32 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>(T,L,P,N,NA)</t>
-  </si>
-  <si>
-    <t>Processo de Garantia de Qualidade - Sessao 5 - Métricas</t>
   </si>
   <si>
     <t>RAP 10. (A partir do nível F) A aderência dos processos executados às descrições de processo, padrões e procedimentos é avaliada objetivamente e são tratadas as não conformidades.                                                                           
 As evidências apresentadas para este resultado permitem assegurar que: (i) foi verificado se o processo foi executado seguindo  as descrições do processo, padrões e procedimentos aplicáveis? (ii) em caso de não conformidades, ações corretivas são estabelecidas e gerenciadas até a sua conclusão?</t>
   </si>
   <si>
-    <t>Relatório de Acompanhamento do Projeto - Sessao 2 - Acompanhamento de Riscos e Problemas</t>
-  </si>
-  <si>
-    <t>Relatório de Acompanhamento do Projeto - Sessao 1 - Atividades</t>
-  </si>
-  <si>
-    <t>Processo de Garantia de Qualidade - Sessao 6 - Macro Fluxo</t>
-  </si>
-  <si>
     <t>RAP 9. (A partir do nível E). Métodos adequados para monitorar a eficácia e adequação do processo são determinados e os resultados do processo são revistos com a gerência de alto nível para fornecer visibilidade sobre a sua situação na organização.                                                                           
 As evidências apresentadas para este resultado permitem assegurar que  foram definidos e utilizados métodos que forneçam visibilidade do estado da execução do processo à gerência de alto nível?</t>
-  </si>
-  <si>
-    <t>Processo de Garantia de Qualidade - Sessao 7 - Definicao de Atividades</t>
   </si>
   <si>
     <t>RAP 9. (Até o nível F). Os resultados do processo são revistos com a gerência de alto nível para fornecer visibilidade sobre a sua situação na organização.                                                                           
@@ -49,20 +34,8 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 11 - Aprovação</t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 9 - Marcos e Pontos de Controle</t>
-  </si>
-  <si>
     <t>RAP 8. A comunicação entre as partes interessadas no processo é planejada e executada de forma a garantir o seu envolvimento.
 As evidências apresentadas para este resultado permitem assegurar que: (i) foi planejada a comunicação entre as partes interessadas no processo?; (ii) este planejamento foi monitorado?; (iii) existe evidência de que a comunicação ocorre de forma a garantir o envolvimento das partes interessadas?</t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 7 - Recursos de Projeto Item 7.a</t>
-  </si>
-  <si>
-    <t>Relatório de Acompanhamento do Projeto - Sessao 3 - Avaliacao da Equipe</t>
   </si>
   <si>
     <t>Curriculum</t>
@@ -70,9 +43,6 @@
   <si>
     <t>RAP 7. As pessoas que executam o processo são competentes em termos de formação, treinamento e experiência.                                                                        
 As evidências apresentadas para este resultado permitem assegurar que foi fornecido treinamento  formal (cursos) ou informal (mentoring) para a execução do processo? (Considerar que, quando o indivíduo já possui o perfil e habilidades para executar o processo, o treinamento é dispensável.)</t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 2 - Cronograma</t>
   </si>
   <si>
     <t>RAP 6. (A partir do nível E). Os papéis requeridos, responsabilidades e autoridade para execução do processo definido são atribuídos e comunicados.
@@ -83,31 +53,16 @@
 As evidências apresentadas para este resultado permitem assegurar que as responsabilidades e a autoridade para executar o processo foram definidas, atribuídas e comunicadas a todas as partes interessadas?</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 7 - Recursos de Projeto Itens 7.a e 7.b</t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 10 - Análise de Viabilidade</t>
-  </si>
-  <si>
     <t>RAP 5. As informações e os recursos necessários para a execução do processo são identificados e disponibilizados.
 As evidências apresentadas para este resultado permitem assegurar que foram identificados e disponibilizados os recursos necessários (ex: pessoal, financeiros,hardware/infra-estrutura, software/ferramentas) e as informações necessárias (ex: processos, padrões, modelos, guias) para executar o processo?</t>
-  </si>
-  <si>
-    <t>Processo de Garantia da Qualidade - Sessao 5 - Métricas</t>
   </si>
   <si>
     <t>RAP 4. (A partir do nível F). Medidas são planejadas e coletadas para monitoração da execução do processo e ajustes são realizados.
 As evidências apresentadas para este resultado permitem assegurar que  a execução do processo foi monitorada por meio de medidas e que ajustes foram realizados para tratar desvios?</t>
   </si>
   <si>
-    <t>Processo de Garantia da Qualidade - Sessao 6 - Macro Fluxo</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAP 3. A execução do processo é planejada.
 As evidências apresentadas para este resultado permitem assegurar que existe um plano para a execução do processo?                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processo de Garantia da Qualidade - Sessao 4 - Politicas</t>
   </si>
   <si>
     <t>RAP 2. Existe uma política organizacional estabelecida e mantida para o processo.
@@ -115,9 +70,6 @@
   </si>
   <si>
     <t>AP 2.1 O processo é gerenciado</t>
-  </si>
-  <si>
-    <t>Planilha de Check-List do Artefato</t>
   </si>
   <si>
     <t>RAP 1. O processo atinge seus resultados definidos.
@@ -172,17 +124,43 @@
   <si>
     <t>Plano de Comunicacao GPR</t>
   </si>
+  <si>
+    <t>Conforme resultados Acima</t>
+  </si>
+  <si>
+    <t>Check List de Qualidade</t>
+  </si>
+  <si>
+    <t>Relatório de Acompanhamento do Projeto</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Processo e Projeto</t>
+  </si>
+  <si>
+    <t>Plano de Projeto</t>
+  </si>
+  <si>
+    <t>Recursos de Projeto</t>
+  </si>
+  <si>
+    <t>Cronograma e Atividades detalhadas</t>
+  </si>
+  <si>
+    <t>Atas De Reuniao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plano de Comunicação 
+</t>
+  </si>
+  <si>
+    <t>Processo de Garantia de Qualidade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -238,6 +216,23 @@
       <sz val="24"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -289,100 +284,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -690,10 +720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>42</v>
+      <c r="A1" s="32" t="s">
+        <v>26</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -706,10 +736,10 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>41</v>
+      <c r="A2" s="30" t="s">
+        <v>25</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -722,11 +752,11 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="51" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>33</v>
+      <c r="A3" s="19" t="s">
+        <v>17</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>40</v>
+      <c r="B3" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -740,10 +770,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>39</v>
+      <c r="A4" s="26" t="s">
+        <v>23</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -756,10 +786,10 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>38</v>
+      <c r="A5" s="26" t="s">
+        <v>22</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -790,7 +820,7 @@
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -806,7 +836,7 @@
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -822,7 +852,7 @@
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
@@ -851,7 +881,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -867,10 +897,10 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="78.75" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>37</v>
+      <c r="A12" s="26" t="s">
+        <v>21</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -884,7 +914,7 @@
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
@@ -900,7 +930,7 @@
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -957,7 +987,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
@@ -973,10 +1003,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>36</v>
+      <c r="A19" s="26" t="s">
+        <v>20</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -990,7 +1020,7 @@
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -1006,7 +1036,7 @@
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
@@ -1022,7 +1052,7 @@
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -1079,7 +1109,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
@@ -1095,10 +1125,10 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>35</v>
+      <c r="A27" s="26" t="s">
+        <v>19</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1112,7 +1142,7 @@
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
@@ -1128,7 +1158,7 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
@@ -1185,7 +1215,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1231,8 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1215,10 +1245,10 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>34</v>
+      <c r="A35" s="21" t="s">
+        <v>18</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1231,10 +1261,10 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="20" t="s">
-        <v>33</v>
+      <c r="A36" s="19" t="s">
+        <v>17</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1247,10 +1277,10 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="12" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>32</v>
+      <c r="A37" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1263,10 +1293,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="36" customHeight="1">
-      <c r="A38" s="18" t="s">
-        <v>31</v>
+      <c r="A38" s="17" t="s">
+        <v>15</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1279,14 +1309,10 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="12" customHeight="1">
-      <c r="A39" s="7" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
+      <c r="A39" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="B39" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1299,10 +1325,10 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="12" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>30</v>
+      <c r="A40" s="34" t="s">
+        <v>32</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1315,7 +1341,10 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="12" customHeight="1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="33" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
+        <v>Processo de Garantia de Qualidade</v>
+      </c>
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
@@ -1329,7 +1358,9 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="12" customHeight="1">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
@@ -1343,7 +1374,9 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="12" customHeight="1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="35" t="s">
+        <v>29</v>
+      </c>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
@@ -1373,10 +1406,10 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="A45" s="15" t="s">
-        <v>29</v>
+      <c r="A45" s="14" t="s">
+        <v>14</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1390,9 +1423,9 @@
     </row>
     <row r="46" spans="1:12" ht="60" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1409,10 +1442,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B47" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1425,8 +1455,8 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="12" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>27</v>
+      <c r="A48" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
@@ -1441,7 +1471,6 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
-      <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
@@ -1500,9 +1529,9 @@
     </row>
     <row r="53" spans="1:12" ht="24.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1519,10 +1548,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B54" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1535,8 +1561,8 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>25</v>
+      <c r="A55" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
@@ -1551,7 +1577,9 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
-      <c r="A56" s="5"/>
+      <c r="A56" s="35" t="s">
+        <v>29</v>
+      </c>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
@@ -1610,7 +1638,7 @@
     </row>
     <row r="60" spans="1:12" ht="48.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="3"/>
@@ -1629,10 +1657,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B61" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1645,8 +1670,8 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="12" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>23</v>
+      <c r="A62" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
@@ -1661,7 +1686,9 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" ht="12" customHeight="1">
-      <c r="A63" s="5"/>
+      <c r="A63" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="2"/>
@@ -1675,7 +1702,9 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="12" customHeight="1">
-      <c r="A64" s="5"/>
+      <c r="A64" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="2"/>
@@ -1720,7 +1749,7 @@
     </row>
     <row r="67" spans="1:12" ht="48.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="3"/>
@@ -1735,14 +1764,10 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="12" customHeight="1">
-      <c r="A68" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
+      <c r="A68" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="B68" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1755,8 +1780,8 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="12" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>21</v>
+      <c r="A69" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="3"/>
@@ -1771,9 +1796,7 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" ht="12" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="3"/>
       <c r="D70" s="2"/>
@@ -1832,7 +1855,7 @@
     </row>
     <row r="74" spans="1:12" ht="36.75" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="3"/>
@@ -1851,10 +1874,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B75" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B75" s="7"/>
       <c r="C75" s="3"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -1867,8 +1887,9 @@
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="12" customHeight="1">
-      <c r="A76" s="5" t="s">
-        <v>7</v>
+      <c r="A76" s="7" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
+        <v>Plano de Projeto</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="3"/>
@@ -1883,14 +1904,7 @@
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="12" customHeight="1">
-      <c r="A77" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B77" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -1903,9 +1917,7 @@
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="12" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="3"/>
       <c r="D78" s="2"/>
@@ -1950,7 +1962,7 @@
     </row>
     <row r="81" spans="1:12" ht="48.75" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="3"/>
@@ -1969,10 +1981,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B82" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B82" s="7"/>
       <c r="C82" s="3"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -1985,8 +1994,8 @@
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="12" customHeight="1">
-      <c r="A83" s="10" t="s">
-        <v>7</v>
+      <c r="A83" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="3"/>
@@ -2005,10 +2014,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B84" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2021,9 +2027,7 @@
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="12" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="3"/>
       <c r="D85" s="2"/>
@@ -2068,7 +2072,7 @@
     </row>
     <row r="88" spans="1:12" ht="48.75" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="3"/>
@@ -2084,7 +2088,7 @@
     </row>
     <row r="89" spans="1:12" ht="12" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="3"/>
@@ -2099,14 +2103,10 @@
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" ht="12" customHeight="1">
-      <c r="A90" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
-        <v>Relatório de Acompanhamento do Projeto</v>
+      <c r="A90" s="39" t="s">
+        <v>36</v>
       </c>
-      <c r="B90" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B90" s="7"/>
       <c r="C90" s="3"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2119,9 +2119,7 @@
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" ht="12" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
       <c r="D91" s="2"/>
@@ -2135,14 +2133,8 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" ht="12" customHeight="1">
-      <c r="A92" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B92" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2155,9 +2147,7 @@
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" ht="12" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="3"/>
       <c r="D93" s="2"/>
@@ -2188,7 +2178,7 @@
     </row>
     <row r="95" spans="1:12" ht="69.75" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="3"/>
@@ -2203,14 +2193,10 @@
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="12" customHeight="1">
-      <c r="A96" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
+      <c r="A96" s="40" t="s">
+        <v>35</v>
       </c>
-      <c r="B96" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B96" s="7"/>
       <c r="C96" s="3"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2223,8 +2209,8 @@
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" ht="12" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>11</v>
+      <c r="A97" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="3"/>
@@ -2239,8 +2225,8 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="12" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>10</v>
+      <c r="A98" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="3"/>
@@ -2259,10 +2245,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B99" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B99" s="7"/>
       <c r="C99" s="3"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2274,29 +2257,25 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="12" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>7</v>
+    <row r="100" spans="1:12" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A100" s="46" t="s">
+        <v>38</v>
       </c>
-      <c r="B100" s="6"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
     </row>
     <row r="101" spans="1:12" ht="12" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="3"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2308,11 +2287,13 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>8</v>
+    <row r="102" spans="1:12" ht="12" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2324,15 +2305,11 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="12" customHeight="1">
-      <c r="A103" s="7" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
+    <row r="103" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>3</v>
       </c>
-      <c r="B103" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="3"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2345,10 +2322,11 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="12" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>5</v>
+      <c r="A104" s="7" t="str">
+        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
+        <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B104" s="6"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="3"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2361,8 +2339,8 @@
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="12" customHeight="1">
-      <c r="A105" s="5" t="s">
-        <v>7</v>
+      <c r="A105" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="3"/>
@@ -2377,7 +2355,9 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="12" customHeight="1">
-      <c r="A106" s="5"/>
+      <c r="A106" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="B106" s="6"/>
       <c r="C106" s="3"/>
       <c r="D106" s="2"/>
@@ -2391,7 +2371,9 @@
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="12" customHeight="1">
-      <c r="A107" s="5"/>
+      <c r="A107" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="B107" s="6"/>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
@@ -2422,7 +2404,7 @@
     </row>
     <row r="109" spans="1:12" ht="48.75" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="3"/>
@@ -2441,10 +2423,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B110" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -2457,8 +2436,8 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="12" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>5</v>
+      <c r="A111" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="3"/>
@@ -2477,10 +2456,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B112" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B112" s="7"/>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -2493,9 +2469,7 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" ht="12" customHeight="1">
-      <c r="A113" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
       <c r="D113" s="2"/>
@@ -2509,9 +2483,7 @@
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" ht="12" customHeight="1">
-      <c r="A114" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
@@ -2542,7 +2514,7 @@
     </row>
     <row r="116" spans="1:12" ht="60.75" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="3"/>
@@ -2561,10 +2533,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B117" s="7" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
+      <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -2577,8 +2546,8 @@
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="12" customHeight="1">
-      <c r="A118" s="5" t="s">
-        <v>1</v>
+      <c r="A118" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="3"/>
@@ -2610,7 +2579,9 @@
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="12" customHeight="1">
-      <c r="A120" s="5"/>
+      <c r="A120" s="49" t="s">
+        <v>28</v>
+      </c>
       <c r="B120" s="6"/>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>

--- a/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
+++ b/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -155,6 +155,9 @@
   <si>
     <t>Processo de Garantia de Qualidade</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +294,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,52 +305,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -355,26 +328,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,7 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,6 +367,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -707,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B121" sqref="B1:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -720,10 +728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -736,10 +744,10 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -752,10 +760,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="51" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3"/>
@@ -770,10 +778,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -786,10 +794,10 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -802,11 +810,13 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -819,10 +829,12 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -838,7 +850,9 @@
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -854,7 +868,9 @@
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -868,7 +884,7 @@
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -881,8 +897,8 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3"/>
@@ -897,10 +913,10 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="78.75" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -913,10 +929,12 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -932,7 +950,9 @@
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -945,8 +965,8 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="12" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -960,7 +980,7 @@
     </row>
     <row r="16" spans="1:12" ht="12" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -974,7 +994,7 @@
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -987,8 +1007,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3"/>
@@ -1003,10 +1023,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1022,7 +1042,9 @@
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1038,7 +1060,9 @@
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1051,10 +1075,12 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1068,7 +1094,7 @@
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1082,7 +1108,7 @@
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1096,7 +1122,7 @@
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1109,8 +1135,8 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3"/>
@@ -1125,10 +1151,10 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1144,7 +1170,9 @@
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1160,7 +1188,9 @@
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1174,7 +1204,7 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1188,7 +1218,7 @@
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1202,7 +1232,7 @@
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1215,8 +1245,8 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3"/>
@@ -1231,8 +1261,8 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1245,10 +1275,10 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1261,10 +1291,10 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1277,10 +1307,10 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="12" customHeight="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1293,10 +1323,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="36" customHeight="1">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1309,10 +1339,12 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="12" customHeight="1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1325,10 +1357,12 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="12" customHeight="1">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1341,11 +1375,13 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="12" customHeight="1">
-      <c r="A41" s="33" t="str">
+      <c r="A41" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1358,10 +1394,12 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="12" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1374,10 +1412,12 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="12" customHeight="1">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1391,7 +1431,7 @@
     </row>
     <row r="44" spans="1:12" ht="12" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="3"/>
@@ -1406,10 +1446,10 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1422,10 +1462,10 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="60" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1438,11 +1478,13 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="12" customHeight="1">
-      <c r="A47" s="7" t="str">
+      <c r="A47" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1455,10 +1497,12 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="12" customHeight="1">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1471,7 +1515,7 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
-      <c r="B49" s="6"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1485,7 +1529,7 @@
     </row>
     <row r="50" spans="1:12" ht="12" customHeight="1">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1499,7 +1543,7 @@
     </row>
     <row r="51" spans="1:12" ht="12" customHeight="1">
       <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1513,7 +1557,7 @@
     </row>
     <row r="52" spans="1:12" ht="12" customHeight="1">
       <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="3"/>
@@ -1528,10 +1572,10 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1544,11 +1588,13 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="12" customHeight="1">
-      <c r="A54" s="7" t="str">
+      <c r="A54" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1561,10 +1607,12 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1577,10 +1625,12 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1594,7 +1644,7 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1608,7 +1658,7 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="3"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1622,7 +1672,7 @@
     </row>
     <row r="59" spans="1:12" ht="12" customHeight="1">
       <c r="A59" s="5"/>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="3"/>
@@ -1637,10 +1687,10 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="3"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1653,11 +1703,13 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="12" customHeight="1">
-      <c r="A61" s="7" t="str">
+      <c r="A61" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1670,10 +1722,12 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="12" customHeight="1">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1686,10 +1740,12 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" ht="12" customHeight="1">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1702,10 +1758,12 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="12" customHeight="1">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="6"/>
+      <c r="B64" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1719,7 +1777,7 @@
     </row>
     <row r="65" spans="1:12" ht="12" customHeight="1">
       <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="3"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1733,7 +1791,7 @@
     </row>
     <row r="66" spans="1:12" ht="12" customHeight="1">
       <c r="A66" s="5"/>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="3"/>
@@ -1748,10 +1806,10 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="3"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1764,10 +1822,12 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="12" customHeight="1">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1780,10 +1840,12 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="12" customHeight="1">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -1797,7 +1859,7 @@
     </row>
     <row r="70" spans="1:12" ht="12" customHeight="1">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="3"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -1811,7 +1873,7 @@
     </row>
     <row r="71" spans="1:12" ht="12" customHeight="1">
       <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="3"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -1825,7 +1887,7 @@
     </row>
     <row r="72" spans="1:12" ht="12" customHeight="1">
       <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="3"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -1839,7 +1901,7 @@
     </row>
     <row r="73" spans="1:12" ht="12" customHeight="1">
       <c r="A73" s="5"/>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="3"/>
@@ -1854,10 +1916,10 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="3"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -1870,11 +1932,13 @@
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="12" customHeight="1">
-      <c r="A75" s="7" t="str">
+      <c r="A75" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -1887,11 +1951,13 @@
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="12" customHeight="1">
-      <c r="A76" s="7" t="str">
+      <c r="A76" s="6" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -1904,7 +1970,7 @@
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="12" customHeight="1">
-      <c r="B77" s="7"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="3"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -1918,7 +1984,7 @@
     </row>
     <row r="78" spans="1:12" ht="12" customHeight="1">
       <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="3"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -1932,7 +1998,7 @@
     </row>
     <row r="79" spans="1:12" ht="12" customHeight="1">
       <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="3"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -1946,7 +2012,7 @@
     </row>
     <row r="80" spans="1:12" ht="12" customHeight="1">
       <c r="A80" s="5"/>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="3"/>
@@ -1961,10 +2027,10 @@
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="3"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -1977,11 +2043,13 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="12" customHeight="1">
-      <c r="A82" s="7" t="str">
+      <c r="A82" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -1994,10 +2062,12 @@
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="12" customHeight="1">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="6"/>
+      <c r="B83" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2010,11 +2080,13 @@
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="12" customHeight="1">
-      <c r="A84" s="7" t="str">
+      <c r="A84" s="6" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2028,7 +2100,7 @@
     </row>
     <row r="85" spans="1:12" ht="12" customHeight="1">
       <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="3"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2042,7 +2114,7 @@
     </row>
     <row r="86" spans="1:12" ht="12" customHeight="1">
       <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="3"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2056,7 +2128,7 @@
     </row>
     <row r="87" spans="1:12" ht="12" customHeight="1">
       <c r="A87" s="5"/>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="3"/>
@@ -2071,10 +2143,10 @@
       <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="3"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2090,7 +2162,9 @@
       <c r="A89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="6"/>
+      <c r="B89" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2103,10 +2177,12 @@
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" ht="12" customHeight="1">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2120,7 +2196,7 @@
     </row>
     <row r="91" spans="1:12" ht="12" customHeight="1">
       <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="3"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2133,8 +2209,8 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" ht="12" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="3"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2148,7 +2224,7 @@
     </row>
     <row r="93" spans="1:12" ht="12" customHeight="1">
       <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="3"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2162,7 +2238,7 @@
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="5"/>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="3"/>
@@ -2177,10 +2253,10 @@
       <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" ht="69.75" customHeight="1">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="8"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="3"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2193,10 +2269,12 @@
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="12" customHeight="1">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="7"/>
+      <c r="B96" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2209,10 +2287,12 @@
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" ht="12" customHeight="1">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B97" s="6"/>
+      <c r="B97" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C97" s="3"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2225,10 +2305,12 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="12" customHeight="1">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="6"/>
+      <c r="B98" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2241,11 +2323,13 @@
       <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" ht="12" customHeight="1">
-      <c r="A99" s="7" t="str">
+      <c r="A99" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2257,25 +2341,27 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A100" s="46" t="s">
+    <row r="100" spans="1:12" s="27" customFormat="1" ht="12" customHeight="1">
+      <c r="A100" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="44"/>
+      <c r="B100" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C100" s="3"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
     </row>
     <row r="101" spans="1:12" ht="12" customHeight="1">
       <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="3"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2291,7 +2377,7 @@
       <c r="A102" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="3"/>
@@ -2306,10 +2392,10 @@
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="8"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="3"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2322,11 +2408,13 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="12" customHeight="1">
-      <c r="A104" s="7" t="str">
+      <c r="A104" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2339,10 +2427,12 @@
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="12" customHeight="1">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="6"/>
+      <c r="B105" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2355,10 +2445,12 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="12" customHeight="1">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B106" s="6"/>
+      <c r="B106" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2371,10 +2463,10 @@
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="12" customHeight="1">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2388,7 +2480,7 @@
     </row>
     <row r="108" spans="1:12" ht="12" customHeight="1">
       <c r="A108" s="5"/>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="3"/>
@@ -2403,10 +2495,10 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="3"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2419,11 +2511,13 @@
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="12" customHeight="1">
-      <c r="A110" s="7" t="str">
+      <c r="A110" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B110" s="7"/>
+      <c r="B110" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C110" s="3"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -2436,10 +2530,12 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="12" customHeight="1">
-      <c r="A111" s="51" t="s">
+      <c r="A111" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B111" s="6"/>
+      <c r="B111" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C111" s="3"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -2452,11 +2548,13 @@
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="12" customHeight="1">
-      <c r="A112" s="7" t="str">
+      <c r="A112" s="6" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B112" s="7"/>
+      <c r="B112" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -2470,7 +2568,9 @@
     </row>
     <row r="113" spans="1:12" ht="12" customHeight="1">
       <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
+      <c r="B113" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C113" s="3"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -2484,7 +2584,7 @@
     </row>
     <row r="114" spans="1:12" ht="12" customHeight="1">
       <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -2498,7 +2598,7 @@
     </row>
     <row r="115" spans="1:12" ht="12" customHeight="1">
       <c r="A115" s="5"/>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="3"/>
@@ -2513,10 +2613,10 @@
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="60.75" customHeight="1">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="8"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="3"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -2529,11 +2629,13 @@
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="12" customHeight="1">
-      <c r="A117" s="7" t="str">
+      <c r="A117" s="6" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B117" s="7"/>
+      <c r="B117" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -2546,10 +2648,12 @@
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="12" customHeight="1">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="6"/>
+      <c r="B118" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C118" s="3"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -2566,7 +2670,9 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Planilha de Checklist do Artefato")</f>
         <v>Planilha de Checklist do Artefato</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C119" s="3"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -2579,10 +2685,12 @@
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="12" customHeight="1">
-      <c r="A120" s="49" t="s">
+      <c r="A120" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -2596,7 +2704,7 @@
     </row>
     <row r="121" spans="1:12" ht="12" customHeight="1">
       <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="3"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>

--- a/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
+++ b/Entregavel_02/Sprint_03/PAQ-PAR-PLANILHA_DE_AVALIACAO_GQA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="GQA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -294,7 +294,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,6 +416,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -715,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B121" sqref="B1:B121"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -814,7 +820,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="3"/>
@@ -832,7 +838,7 @@
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="3"/>
@@ -850,7 +856,7 @@
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="3"/>
@@ -868,7 +874,7 @@
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="3"/>
@@ -932,7 +938,7 @@
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="3"/>
@@ -950,7 +956,7 @@
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="3"/>
@@ -1042,7 +1048,7 @@
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="3"/>
@@ -1060,7 +1066,7 @@
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="3"/>
@@ -1078,7 +1084,7 @@
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="3"/>
@@ -1170,7 +1176,7 @@
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="3"/>
@@ -1188,7 +1194,7 @@
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3"/>
@@ -1379,7 +1385,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="3"/>
@@ -1397,7 +1403,7 @@
       <c r="A42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="3"/>
@@ -1415,7 +1421,7 @@
       <c r="A43" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="3"/>
@@ -1482,7 +1488,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="3"/>
@@ -1500,7 +1506,7 @@
       <c r="A48" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="3"/>
@@ -1592,7 +1598,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="3"/>
@@ -1610,7 +1616,7 @@
       <c r="A55" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="3"/>
@@ -1628,7 +1634,7 @@
       <c r="A56" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="3"/>
@@ -1707,7 +1713,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="3"/>
@@ -1725,7 +1731,7 @@
       <c r="A62" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="3"/>
@@ -1743,7 +1749,7 @@
       <c r="A63" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="3"/>
@@ -1761,7 +1767,7 @@
       <c r="A64" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="3"/>
@@ -1825,7 +1831,7 @@
       <c r="A68" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="3"/>
@@ -1843,7 +1849,7 @@
       <c r="A69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="3"/>
@@ -1936,7 +1942,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="3"/>
@@ -1955,7 +1961,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="3"/>
@@ -2047,7 +2053,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="3"/>
@@ -2065,7 +2071,7 @@
       <c r="A83" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="3"/>
@@ -2084,7 +2090,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="3"/>
@@ -2162,7 +2168,7 @@
       <c r="A89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="3"/>
@@ -2180,7 +2186,7 @@
       <c r="A90" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="3"/>
@@ -2272,7 +2278,7 @@
       <c r="A96" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C96" s="3"/>
@@ -2290,7 +2296,7 @@
       <c r="A97" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C97" s="3"/>
@@ -2308,7 +2314,7 @@
       <c r="A98" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C98" s="3"/>
@@ -2327,7 +2333,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C99" s="3"/>
@@ -2345,7 +2351,7 @@
       <c r="A100" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="3"/>
@@ -2412,7 +2418,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C104" s="3"/>
@@ -2430,7 +2436,7 @@
       <c r="A105" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="3"/>
@@ -2448,7 +2454,7 @@
       <c r="A106" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="3"/>
@@ -2466,7 +2472,9 @@
       <c r="A107" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="42"/>
+      <c r="B107" s="53" t="s">
+        <v>41</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2515,7 +2523,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C110" s="3"/>
@@ -2533,7 +2541,7 @@
       <c r="A111" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C111" s="3"/>
@@ -2552,7 +2560,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C112" s="3"/>
@@ -2568,7 +2576,7 @@
     </row>
     <row r="113" spans="1:12" ht="12" customHeight="1">
       <c r="A113" s="5"/>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C113" s="3"/>
@@ -2633,7 +2641,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
         <v>Processo de Garantia de Qualidade</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="3"/>
@@ -2651,7 +2659,7 @@
       <c r="A118" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C118" s="3"/>
@@ -2670,7 +2678,7 @@
         <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Planilha de Checklist do Artefato")</f>
         <v>Planilha de Checklist do Artefato</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C119" s="3"/>
@@ -2688,7 +2696,7 @@
       <c r="A120" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C120" s="3"/>
@@ -15025,6 +15033,58 @@
       <c r="L1000" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B20" r:id="rId6"/>
+    <hyperlink ref="B21" r:id="rId7"/>
+    <hyperlink ref="B28" r:id="rId8"/>
+    <hyperlink ref="B29" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
+    <hyperlink ref="B42" r:id="rId11"/>
+    <hyperlink ref="B6" r:id="rId12"/>
+    <hyperlink ref="B41" r:id="rId13"/>
+    <hyperlink ref="B47" r:id="rId14"/>
+    <hyperlink ref="B54" r:id="rId15"/>
+    <hyperlink ref="B61" r:id="rId16"/>
+    <hyperlink ref="B75" r:id="rId17"/>
+    <hyperlink ref="B82" r:id="rId18"/>
+    <hyperlink ref="B104" r:id="rId19"/>
+    <hyperlink ref="B110" r:id="rId20"/>
+    <hyperlink ref="B117" r:id="rId21"/>
+    <hyperlink ref="B118" r:id="rId22"/>
+    <hyperlink ref="B43" r:id="rId23"/>
+    <hyperlink ref="B56" r:id="rId24"/>
+    <hyperlink ref="B62" r:id="rId25"/>
+    <hyperlink ref="B48" r:id="rId26"/>
+    <hyperlink ref="B55" r:id="rId27"/>
+    <hyperlink ref="B63" r:id="rId28"/>
+    <hyperlink ref="B120" r:id="rId29"/>
+    <hyperlink ref="B64" r:id="rId30"/>
+    <hyperlink ref="B111" r:id="rId31"/>
+    <hyperlink ref="B68" r:id="rId32"/>
+    <hyperlink ref="B76" r:id="rId33"/>
+    <hyperlink ref="B84" r:id="rId34"/>
+    <hyperlink ref="B96" r:id="rId35"/>
+    <hyperlink ref="B107" r:id="rId36"/>
+    <hyperlink ref="B69" r:id="rId37"/>
+    <hyperlink ref="B83" r:id="rId38"/>
+    <hyperlink ref="B90" r:id="rId39"/>
+    <hyperlink ref="B89" r:id="rId40"/>
+    <hyperlink ref="B97" r:id="rId41"/>
+    <hyperlink ref="B112" r:id="rId42"/>
+    <hyperlink ref="B98" r:id="rId43"/>
+    <hyperlink ref="B99" r:id="rId44"/>
+    <hyperlink ref="B105" r:id="rId45"/>
+    <hyperlink ref="B100" r:id="rId46"/>
+    <hyperlink ref="B106" r:id="rId47"/>
+    <hyperlink ref="B113" r:id="rId48"/>
+    <hyperlink ref="B119" r:id="rId49"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>